--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793D2DA-ED17-422C-B1B0-9F65F5BE5D21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E9588-C2C3-4D7F-B651-3BCD1C72C51C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -86,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,80 +186,71 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +569,7 @@
   <dimension ref="B3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,237 +578,247 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="1">
         <v>43399</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="10">
         <v>2</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="10">
         <v>5</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="10">
         <v>8</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="24">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14">
         <f>SUM(F5:F14)</f>
         <v>27</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="14">
         <f t="shared" ref="G15:K15" si="0">SUM(G5:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
+        <v>26</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="50">
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -825,13 +826,15 @@
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="B15:E16"/>
     <mergeCell ref="B17:E18"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="B11:E12"/>
     <mergeCell ref="F5:F6"/>
@@ -843,6 +846,29 @@
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B7:E8"/>
     <mergeCell ref="B9:E10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33E9588-C2C3-4D7F-B651-3BCD1C72C51C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B3E70-BF54-4A98-AC1D-3639E8141BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -204,53 +204,53 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,256 +569,310 @@
   <dimension ref="B3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>43399</v>
       </c>
+      <c r="H3" s="1">
+        <v>43400</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10">
+      <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="8">
         <v>5</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="8">
         <v>8</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="H11" s="8">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15">
         <v>10</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="8">
         <v>10</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2">
         <f>SUM(F5:F14)</f>
-        <v>27</v>
-      </c>
-      <c r="G15" s="14">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" ref="G15:K15" si="0">SUM(G5:G14)</f>
-        <v>26</v>
-      </c>
-      <c r="H15" s="14">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="14">
+      <c r="J15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="14">
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
@@ -828,47 +882,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B3E70-BF54-4A98-AC1D-3639E8141BAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207B36E-B2F5-4C5C-8D3B-3C022518ECAE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -204,6 +204,42 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,42 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,21 +569,21 @@
   <dimension ref="B3:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J15" sqref="J15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -593,272 +593,282 @@
       <c r="H3" s="1">
         <v>43400</v>
       </c>
+      <c r="I3" s="1">
+        <v>43402</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="2">
         <v>7</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="10">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="2">
         <v>5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="10">
         <v>8</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="2">
         <v>8</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="2">
         <v>8</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="2">
         <v>10</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14">
         <f>SUM(F5:F14)</f>
-        <v>35</v>
-      </c>
-      <c r="G15" s="2">
+        <v>36</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" ref="G15:K15" si="0">SUM(G5:G14)</f>
-        <v>32</v>
-      </c>
-      <c r="H15" s="2">
+        <v>33</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I15" s="2">
+        <v>31</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="K15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="B13:E14"/>
@@ -868,20 +878,33 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6207B36E-B2F5-4C5C-8D3B-3C022518ECAE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10CA84-E0DA-45AB-B634-463DAE67A115}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -30,15 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tasks</t>
   </si>
   <si>
     <t>Points</t>
-  </si>
-  <si>
-    <t>View History Activies</t>
   </si>
   <si>
     <t>Edit Cards</t>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>Estimated</t>
+  </si>
+  <si>
+    <t>View History Activities</t>
+  </si>
+  <si>
+    <t>Add Manual Transaction</t>
   </si>
 </sst>
 </file>
@@ -204,53 +207,53 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,24 +569,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CFD15-C30D-40CC-AF2A-0CE4DF52F7FE}">
-  <dimension ref="B3:K18"/>
+  <dimension ref="B3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J16"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -596,57 +599,65 @@
       <c r="I3" s="1">
         <v>43402</v>
       </c>
+      <c r="J3" s="1">
+        <v>43403</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43404</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="J5" s="8">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="8">
         <v>2</v>
       </c>
-      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15">
         <v>3</v>
       </c>
       <c r="G7" s="2">
@@ -659,252 +670,305 @@
         <v>3</v>
       </c>
       <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3</v>
+      </c>
+      <c r="I9" s="8">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8</v>
+      </c>
+      <c r="H13" s="8">
+        <v>8</v>
+      </c>
+      <c r="I13" s="8">
+        <v>8</v>
+      </c>
+      <c r="J13" s="8">
+        <v>8</v>
+      </c>
+      <c r="K13" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2">
-        <v>8</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="15">
         <v>10</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G15" s="8">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H15" s="8">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I15" s="8">
         <v>10</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J15" s="8">
         <v>10</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14">
-        <f>SUM(F5:F14)</f>
-        <v>36</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" ref="G15:K15" si="0">SUM(G5:G14)</f>
-        <v>33</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="J15" s="14">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="K15" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2">
+        <f>SUM(F5:F16)</f>
+        <v>39</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM(G5:G16)</f>
+        <v>36</v>
+      </c>
+      <c r="H17" s="2">
+        <f>SUM(H5:H16)</f>
+        <v>34</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUM(I5:I16)</f>
+        <v>31</v>
+      </c>
+      <c r="J17" s="2">
+        <f>SUM(J5:J16)</f>
+        <v>29</v>
+      </c>
+      <c r="K17" s="2">
+        <f>SUM(K5:K16)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="57">
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="B19:E20"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10CA84-E0DA-45AB-B634-463DAE67A115}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD6931-9C34-4932-8F1E-78AE6B785727}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Menu Layout</t>
   </si>
   <si>
-    <t>Set up Webhook</t>
-  </si>
-  <si>
     <t>Remaining</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Add Manual Transaction</t>
+  </si>
+  <si>
+    <t>Set up Webhook (might not need)</t>
   </si>
 </sst>
 </file>
@@ -207,53 +207,53 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,24 +569,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CFD15-C30D-40CC-AF2A-0CE4DF52F7FE}">
-  <dimension ref="B3:K20"/>
+  <dimension ref="B3:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B15" sqref="B15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -605,337 +606,484 @@
       <c r="K3" s="1">
         <v>43404</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="L3" s="1">
+        <v>43406</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="8">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>5</v>
-      </c>
-      <c r="H11" s="8">
-        <v>5</v>
-      </c>
-      <c r="I11" s="8">
-        <v>5</v>
-      </c>
-      <c r="J11" s="8">
-        <v>5</v>
-      </c>
-      <c r="K11" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17:K17" si="0">SUM(F5:F16)</f>
+        <v>46</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K17" s="2">
         <v>8</v>
       </c>
-      <c r="G13" s="8">
-        <v>8</v>
-      </c>
-      <c r="H13" s="8">
-        <v>8</v>
-      </c>
-      <c r="I13" s="8">
-        <v>8</v>
-      </c>
-      <c r="J13" s="8">
-        <v>8</v>
-      </c>
-      <c r="K13" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8">
-        <v>10</v>
-      </c>
-      <c r="H15" s="8">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8">
-        <v>10</v>
-      </c>
-      <c r="J15" s="8">
-        <v>10</v>
-      </c>
-      <c r="K15" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="L17" s="3">
+        <f t="shared" ref="L17" si="1">SUM(L5:L16)</f>
+        <v>29</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ref="N17" si="2">SUM(N5:N16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2">
-        <f>SUM(F5:F16)</f>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16">
+        <f>SUM(F5:F15)</f>
+        <v>46</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" ref="G19:N19" si="3">SUM(G5:G15)</f>
+        <v>44</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="G17" s="2">
-        <f>SUM(G5:G16)</f>
-        <v>36</v>
-      </c>
-      <c r="H17" s="2">
-        <f>SUM(H5:H16)</f>
-        <v>34</v>
-      </c>
-      <c r="I17" s="2">
-        <f>SUM(I5:I16)</f>
-        <v>31</v>
-      </c>
-      <c r="J17" s="2">
-        <f>SUM(J5:J16)</f>
+      <c r="J19" s="16">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="L19" s="16">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="K17" s="2">
-        <f>SUM(K5:K16)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="M19" s="16">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H7:H8"/>
+  <mergeCells count="81">
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B9:E10"/>
@@ -946,29 +1094,30 @@
     <mergeCell ref="B7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FD6931-9C34-4932-8F1E-78AE6B785727}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CA563-BB6F-4255-8B21-1EE83AFDAAC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Tasks</t>
   </si>
@@ -59,7 +59,22 @@
     <t>Add Manual Transaction</t>
   </si>
   <si>
-    <t>Set up Webhook (might not need)</t>
+    <t>Delete Cards</t>
+  </si>
+  <si>
+    <t>View Monthly Payment History</t>
+  </si>
+  <si>
+    <t>(!)</t>
+  </si>
+  <si>
+    <t>Connection Fail Handling</t>
+  </si>
+  <si>
+    <t>Password Reset</t>
+  </si>
+  <si>
+    <t>Querying Transactions</t>
   </si>
 </sst>
 </file>
@@ -207,53 +222,53 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,25 +584,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CFD15-C30D-40CC-AF2A-0CE4DF52F7FE}">
-  <dimension ref="B3:N20"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E16"/>
+      <selection activeCell="O9" sqref="O9:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -612,478 +628,752 @@
       <c r="M3" s="1">
         <v>43410</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12">
+      <c r="N3" s="1">
+        <v>43416</v>
+      </c>
+      <c r="O3" s="1">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="N4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="14">
         <v>17</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>13</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="7">
         <v>10</v>
       </c>
-      <c r="L5" s="2">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5" s="7">
+        <v>5</v>
+      </c>
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="7">
         <v>3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14">
         <v>3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>3</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="7">
         <v>1</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="7">
         <v>1</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5</v>
+      </c>
+      <c r="L11" s="7">
         <v>4</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="14">
         <v>8</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="7">
         <v>8</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>8</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>8</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>8</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="7">
         <v>8</v>
       </c>
-      <c r="M13" s="2">
-        <v>7</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="14">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+      <c r="M15" s="5">
+        <v>5</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5">
+        <v>7</v>
+      </c>
+      <c r="I17" s="5">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5">
+        <v>7</v>
+      </c>
+      <c r="L17" s="5">
+        <v>7</v>
+      </c>
+      <c r="M17" s="5">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5">
+        <v>7</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="14">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7</v>
+      </c>
+      <c r="K19" s="5">
+        <v>7</v>
+      </c>
+      <c r="L19" s="5">
+        <v>7</v>
+      </c>
+      <c r="M19" s="5">
+        <v>7</v>
+      </c>
+      <c r="N19" s="5">
+        <v>7</v>
+      </c>
+      <c r="O19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="14">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5</v>
+      </c>
+      <c r="L21" s="5">
+        <v>5</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21" s="5">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="2">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="14">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
+      <c r="G23" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="2">
+      <c r="H23" s="7">
         <v>10</v>
       </c>
-      <c r="J15" s="2">
+      <c r="I23" s="7">
         <v>10</v>
       </c>
-      <c r="K15" s="2">
+      <c r="J23" s="7">
         <v>10</v>
       </c>
-      <c r="L15" s="2">
+      <c r="K23" s="7">
         <v>10</v>
       </c>
-      <c r="M15" s="2">
+      <c r="L23" s="7">
         <v>10</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="3">
-        <f t="shared" ref="F17:K17" si="0">SUM(F5:F16)</f>
-        <v>46</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5">
+        <f>SUM(F5:F24)</f>
+        <v>70</v>
+      </c>
+      <c r="G25" s="5">
+        <f>SUM(G5:G24)</f>
+        <v>68</v>
+      </c>
+      <c r="H25" s="5">
+        <f>SUM(H5:H24)</f>
+        <v>66</v>
+      </c>
+      <c r="I25" s="5">
+        <f>SUM(I5:I24)</f>
+        <v>63</v>
+      </c>
+      <c r="J25" s="5">
+        <f>SUM(J5:J24)</f>
+        <v>61</v>
+      </c>
+      <c r="K25" s="5">
+        <f>SUM(K5:K24)</f>
+        <v>61</v>
+      </c>
+      <c r="L25" s="5">
+        <f>SUM(L5:L24)</f>
+        <v>53</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <f>SUM(N5:N24)</f>
+        <v>19</v>
+      </c>
+      <c r="O25" s="5">
+        <f>SUM(O5:O24)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="3">
+        <f>SUM(F5:F23)</f>
+        <v>70</v>
+      </c>
+      <c r="G27" s="3">
+        <f>SUM(G5:G23)</f>
+        <v>68</v>
+      </c>
+      <c r="H27" s="3">
+        <f>SUM(H5:H23)</f>
+        <v>66</v>
+      </c>
+      <c r="I27" s="3">
+        <f>SUM(I5:I23)</f>
+        <v>63</v>
+      </c>
+      <c r="J27" s="3">
+        <f>SUM(J5:J23)</f>
+        <v>61</v>
+      </c>
+      <c r="K27" s="3">
+        <f>SUM(K5:K23)</f>
+        <v>61</v>
+      </c>
+      <c r="L27" s="3">
+        <f>SUM(L5:L23)</f>
+        <v>53</v>
+      </c>
+      <c r="M27" s="3">
+        <f>SUM(M5:M23)</f>
         <v>44</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="K17" s="2">
-        <v>8</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" ref="L17" si="1">SUM(L5:L16)</f>
-        <v>29</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" ref="N17" si="2">SUM(N5:N16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16">
-        <f>SUM(F5:F15)</f>
-        <v>46</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" ref="G19:N19" si="3">SUM(G5:G15)</f>
-        <v>44</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="I19" s="16">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="J19" s="16">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="M19" s="16">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="N19" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="N27" s="3">
+        <f>SUM(N5:N23)</f>
+        <v>19</v>
+      </c>
+      <c r="O27" s="3">
+        <f>SUM(O5:O23)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="K17:K18"/>
+  <mergeCells count="133">
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B9:E10"/>
@@ -1094,30 +1384,68 @@
     <mergeCell ref="B7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89CA563-BB6F-4255-8B21-1EE83AFDAAC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C180E-47EB-4D5D-B0FC-8468AADB1760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tasks</t>
   </si>
@@ -65,9 +66,6 @@
     <t>View Monthly Payment History</t>
   </si>
   <si>
-    <t>(!)</t>
-  </si>
-  <si>
     <t>Connection Fail Handling</t>
   </si>
   <si>
@@ -75,6 +73,9 @@
   </si>
   <si>
     <t>Querying Transactions</t>
+  </si>
+  <si>
+    <t>(!) Lot done</t>
   </si>
 </sst>
 </file>
@@ -226,19 +227,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -587,7 +588,7 @@
   <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:O10"/>
+      <selection activeCell="O5" sqref="O5:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +642,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="N4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -652,33 +653,33 @@
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="14">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
         <v>17</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="5">
         <v>15</v>
       </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7">
-        <v>10</v>
-      </c>
-      <c r="L5" s="7">
-        <v>5</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="I5" s="5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>7</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -688,15 +689,15 @@
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -708,31 +709,31 @@
       <c r="F7" s="14">
         <v>3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -742,15 +743,15 @@
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
@@ -762,31 +763,31 @@
       <c r="F9" s="14">
         <v>3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>3</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>1</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -796,15 +797,15 @@
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
@@ -816,31 +817,31 @@
       <c r="F11" s="14">
         <v>5</v>
       </c>
-      <c r="G11" s="7">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7">
-        <v>5</v>
-      </c>
-      <c r="K11" s="7">
-        <v>5</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
         <v>4</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -850,15 +851,15 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
@@ -868,33 +869,33 @@
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
+        <v>10</v>
+      </c>
+      <c r="K13" s="5">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10</v>
+      </c>
+      <c r="M13" s="5">
         <v>8</v>
       </c>
-      <c r="G13" s="7">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8</v>
-      </c>
-      <c r="J13" s="7">
-        <v>8</v>
-      </c>
-      <c r="K13" s="7">
-        <v>8</v>
-      </c>
-      <c r="L13" s="7">
-        <v>8</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -904,15 +905,15 @@
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -924,31 +925,31 @@
       <c r="F15" s="14">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
-        <v>5</v>
-      </c>
-      <c r="K15" s="5">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5">
-        <v>5</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -958,19 +959,19 @@
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -978,31 +979,31 @@
       <c r="F17" s="14">
         <v>7</v>
       </c>
-      <c r="G17" s="5">
-        <v>7</v>
-      </c>
-      <c r="H17" s="5">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5">
-        <v>7</v>
-      </c>
-      <c r="J17" s="5">
-        <v>7</v>
-      </c>
-      <c r="K17" s="5">
-        <v>7</v>
-      </c>
-      <c r="L17" s="5">
-        <v>7</v>
-      </c>
-      <c r="M17" s="5">
-        <v>7</v>
-      </c>
-      <c r="N17" s="5">
-        <v>7</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3">
+        <v>7</v>
+      </c>
+      <c r="N17" s="3">
+        <v>7</v>
+      </c>
+      <c r="O17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1012,19 +1013,19 @@
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1032,31 +1033,31 @@
       <c r="F19" s="14">
         <v>7</v>
       </c>
-      <c r="G19" s="5">
-        <v>7</v>
-      </c>
-      <c r="H19" s="5">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5">
-        <v>7</v>
-      </c>
-      <c r="J19" s="5">
-        <v>7</v>
-      </c>
-      <c r="K19" s="5">
-        <v>7</v>
-      </c>
-      <c r="L19" s="5">
-        <v>7</v>
-      </c>
-      <c r="M19" s="5">
-        <v>7</v>
-      </c>
-      <c r="N19" s="5">
-        <v>7</v>
-      </c>
-      <c r="O19" s="5">
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>7</v>
+      </c>
+      <c r="L19" s="3">
+        <v>7</v>
+      </c>
+      <c r="M19" s="3">
+        <v>7</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7</v>
+      </c>
+      <c r="O19" s="3">
         <v>7</v>
       </c>
     </row>
@@ -1066,19 +1067,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1086,31 +1087,31 @@
       <c r="F21" s="14">
         <v>5</v>
       </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5">
-        <v>5</v>
-      </c>
-      <c r="L21" s="5">
-        <v>5</v>
-      </c>
-      <c r="M21" s="5">
-        <v>5</v>
-      </c>
-      <c r="N21" s="5">
-        <v>5</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1120,15 +1121,15 @@
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -1140,31 +1141,31 @@
       <c r="F23" s="14">
         <v>10</v>
       </c>
-      <c r="G23" s="7">
-        <v>10</v>
-      </c>
-      <c r="H23" s="7">
-        <v>10</v>
-      </c>
-      <c r="I23" s="7">
-        <v>10</v>
-      </c>
-      <c r="J23" s="7">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7">
-        <v>10</v>
-      </c>
-      <c r="L23" s="7">
-        <v>10</v>
-      </c>
-      <c r="M23" s="7">
-        <v>10</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5">
+        <v>10</v>
+      </c>
+      <c r="L23" s="5">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>10</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1174,15 +1175,15 @@
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -1191,42 +1192,42 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <f>SUM(F5:F24)</f>
+        <v>75</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ref="G25:L25" si="0">SUM(G5:G24)</f>
+        <v>72</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G25" s="5">
-        <f>SUM(G5:G24)</f>
-        <v>68</v>
-      </c>
-      <c r="H25" s="5">
-        <f>SUM(H5:H24)</f>
-        <v>66</v>
-      </c>
-      <c r="I25" s="5">
-        <f>SUM(I5:I24)</f>
-        <v>63</v>
-      </c>
-      <c r="J25" s="5">
-        <f>SUM(J5:J24)</f>
-        <v>61</v>
-      </c>
-      <c r="K25" s="5">
-        <f>SUM(K5:K24)</f>
-        <v>61</v>
-      </c>
-      <c r="L25" s="5">
-        <f>SUM(L5:L24)</f>
-        <v>53</v>
-      </c>
-      <c r="M25" s="5">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
         <f>SUM(N5:N24)</f>
-        <v>19</v>
-      </c>
-      <c r="O25" s="5">
+        <v>24</v>
+      </c>
+      <c r="O25" s="3">
         <f>SUM(O5:O24)</f>
         <v>10</v>
       </c>
@@ -1236,16 +1237,16 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
@@ -1254,44 +1255,44 @@
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <f>SUM(F5:F23)</f>
+        <v>75</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" ref="G27:O27" si="1">SUM(G5:G23)</f>
+        <v>72</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="G27" s="3">
-        <f>SUM(G5:G23)</f>
-        <v>68</v>
-      </c>
-      <c r="H27" s="3">
-        <f>SUM(H5:H23)</f>
-        <v>66</v>
-      </c>
-      <c r="I27" s="3">
-        <f>SUM(I5:I23)</f>
-        <v>63</v>
-      </c>
-      <c r="J27" s="3">
-        <f>SUM(J5:J23)</f>
-        <v>61</v>
-      </c>
-      <c r="K27" s="3">
-        <f>SUM(K5:K23)</f>
-        <v>61</v>
-      </c>
-      <c r="L27" s="3">
-        <f>SUM(L5:L23)</f>
-        <v>53</v>
-      </c>
-      <c r="M27" s="3">
-        <f>SUM(M5:M23)</f>
-        <v>44</v>
-      </c>
-      <c r="N27" s="3">
-        <f>SUM(N5:N23)</f>
-        <v>19</v>
-      </c>
-      <c r="O27" s="3">
-        <f>SUM(O5:O23)</f>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1300,72 +1301,69 @@
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B17:E18"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="H11:H12"/>
@@ -1390,62 +1388,65 @@
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="B25:E26"/>
     <mergeCell ref="B27:E28"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="K25:K26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C180E-47EB-4D5D-B0FC-8468AADB1760}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEACB47-F570-42E4-BB22-6FC920CB46E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -226,13 +226,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -266,10 +266,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,26 +585,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CFD15-C30D-40CC-AF2A-0CE4DF52F7FE}">
-  <dimension ref="B3:O28"/>
+  <dimension ref="B3:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O6"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -635,17 +635,20 @@
       <c r="O3" s="1">
         <v>43423</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="P3" s="1">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -655,51 +658,55 @@
       <c r="F5" s="14">
         <v>20</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>17</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>15</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>12</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>12</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>12</v>
       </c>
-      <c r="L5" s="5">
-        <v>7</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="L5" s="3">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <v>3</v>
       </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -709,51 +716,55 @@
       <c r="F7" s="14">
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>3</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="3">
         <v>3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
@@ -763,51 +774,55 @@
       <c r="F9" s="14">
         <v>3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>1</v>
       </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
@@ -817,51 +832,55 @@
       <c r="F11" s="14">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5">
-        <v>5</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
         <v>4</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>1</v>
       </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
@@ -871,51 +890,55 @@
       <c r="F13" s="14">
         <v>10</v>
       </c>
-      <c r="G13" s="5">
-        <v>10</v>
-      </c>
-      <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="5">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5">
-        <v>10</v>
-      </c>
-      <c r="K13" s="5">
-        <v>10</v>
-      </c>
-      <c r="L13" s="5">
-        <v>10</v>
-      </c>
-      <c r="M13" s="5">
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3">
         <v>8</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="3">
         <v>2</v>
       </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -925,51 +948,55 @@
       <c r="F15" s="14">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
@@ -979,51 +1006,55 @@
       <c r="F17" s="14">
         <v>7</v>
       </c>
-      <c r="G17" s="3">
-        <v>7</v>
-      </c>
-      <c r="H17" s="3">
-        <v>7</v>
-      </c>
-      <c r="I17" s="3">
-        <v>7</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3">
-        <v>7</v>
-      </c>
-      <c r="L17" s="3">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3">
-        <v>7</v>
-      </c>
-      <c r="N17" s="3">
-        <v>7</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4">
+        <v>7</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
@@ -1033,51 +1064,55 @@
       <c r="F19" s="14">
         <v>7</v>
       </c>
-      <c r="G19" s="3">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>7</v>
-      </c>
-      <c r="I19" s="3">
-        <v>7</v>
-      </c>
-      <c r="J19" s="3">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3">
-        <v>7</v>
-      </c>
-      <c r="L19" s="3">
-        <v>7</v>
-      </c>
-      <c r="M19" s="3">
-        <v>7</v>
-      </c>
-      <c r="N19" s="3">
-        <v>7</v>
-      </c>
-      <c r="O19" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>7</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>7</v>
+      </c>
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7</v>
+      </c>
+      <c r="N19" s="4">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4">
+        <v>7</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
@@ -1087,51 +1122,55 @@
       <c r="F21" s="14">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="13"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1141,120 +1180,130 @@
       <c r="F23" s="14">
         <v>10</v>
       </c>
-      <c r="G23" s="5">
-        <v>10</v>
-      </c>
-      <c r="H23" s="5">
-        <v>10</v>
-      </c>
-      <c r="I23" s="5">
-        <v>10</v>
-      </c>
-      <c r="J23" s="5">
-        <v>10</v>
-      </c>
-      <c r="K23" s="5">
-        <v>10</v>
-      </c>
-      <c r="L23" s="5">
-        <v>10</v>
-      </c>
-      <c r="M23" s="5">
-        <v>10</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3">
+        <v>10</v>
+      </c>
+      <c r="M23" s="3">
+        <v>10</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <f>SUM(F5:F24)</f>
         <v>75</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <f t="shared" ref="G25:L25" si="0">SUM(G5:G24)</f>
         <v>72</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="M25" s="4">
+        <f>SUM(M5:M24)</f>
+        <v>47</v>
+      </c>
+      <c r="N25" s="4">
         <f>SUM(N5:N24)</f>
         <v>24</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="4">
         <f>SUM(O5:O24)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="P25" s="4">
+        <f>SUM(P5:P24)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="6">
         <f>SUM(F5:F23)</f>
         <v>75</v>
@@ -1295,12 +1344,16 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="P27" s="6">
+        <f t="shared" ref="P27" si="2">SUM(P5:P23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1311,15 +1364,10 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L25:L26"/>
+  <mergeCells count="145">
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="L7:L8"/>
@@ -1338,10 +1386,6 @@
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="N9:N10"/>
@@ -1357,21 +1401,24 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L25:L26"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H23:H24"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="B9:E10"/>
@@ -1382,8 +1429,6 @@
     <mergeCell ref="B7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="B23:E24"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="F5:F6"/>
@@ -1399,7 +1444,15 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H9:H10"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="O9:O10"/>
@@ -1423,6 +1476,7 @@
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="O25:O26"/>
@@ -1447,6 +1501,18 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="K25:K26"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
+++ b/_FinalPlanning/BurnDown/Burn Down Chart Draft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Git\BehrmanCSE248\_FinalPlanning\BurnDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEACB47-F570-42E4-BB22-6FC920CB46E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE746C1-1E36-48FC-8B71-C8072CB7A062}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{2B62D9C2-9DC6-4999-B35D-877F52857D40}"/>
   </bookViews>
@@ -226,13 +226,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -240,6 +240,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,17 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561CFD15-C30D-40CC-AF2A-0CE4DF52F7FE}">
-  <dimension ref="B3:P28"/>
+  <dimension ref="B3:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="L13" sqref="L13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,15 +596,16 @@
     <col min="7" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" t="s">
         <v>1</v>
       </c>
@@ -638,672 +639,768 @@
       <c r="P3" s="1">
         <v>43430</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="Q3" s="1">
+        <v>43437</v>
+      </c>
+      <c r="R3" s="1">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="N4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>17</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>15</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>12</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>12</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>12</v>
       </c>
-      <c r="L5" s="3">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="L5" s="5">
+        <v>7</v>
+      </c>
+      <c r="M5" s="5">
         <v>3</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="5">
         <v>3</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>3</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="5">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
         <v>4</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>1</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14">
-        <v>10</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3">
-        <v>10</v>
-      </c>
-      <c r="K13" s="3">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3">
-        <v>10</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+      <c r="I13" s="5">
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
+        <v>10</v>
+      </c>
+      <c r="K13" s="5">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10</v>
+      </c>
+      <c r="M13" s="5">
         <v>8</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="5">
         <v>2</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="4">
-        <v>5</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="8">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14">
-        <v>7</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7</v>
-      </c>
-      <c r="H17" s="4">
-        <v>7</v>
-      </c>
-      <c r="I17" s="4">
-        <v>7</v>
-      </c>
-      <c r="J17" s="4">
-        <v>7</v>
-      </c>
-      <c r="K17" s="4">
-        <v>7</v>
-      </c>
-      <c r="L17" s="4">
-        <v>7</v>
-      </c>
-      <c r="M17" s="4">
-        <v>7</v>
-      </c>
-      <c r="N17" s="4">
-        <v>7</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="8">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3">
+        <v>7</v>
+      </c>
+      <c r="N17" s="3">
+        <v>7</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14">
-        <v>7</v>
-      </c>
-      <c r="G19" s="4">
-        <v>7</v>
-      </c>
-      <c r="H19" s="4">
-        <v>7</v>
-      </c>
-      <c r="I19" s="4">
-        <v>7</v>
-      </c>
-      <c r="J19" s="4">
-        <v>7</v>
-      </c>
-      <c r="K19" s="4">
-        <v>7</v>
-      </c>
-      <c r="L19" s="4">
-        <v>7</v>
-      </c>
-      <c r="M19" s="4">
-        <v>7</v>
-      </c>
-      <c r="N19" s="4">
-        <v>7</v>
-      </c>
-      <c r="O19" s="4">
-        <v>7</v>
-      </c>
-      <c r="P19" s="4">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <v>7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>7</v>
+      </c>
+      <c r="L19" s="3">
+        <v>7</v>
+      </c>
+      <c r="M19" s="3">
+        <v>7</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7</v>
+      </c>
+      <c r="O19" s="3">
+        <v>7</v>
+      </c>
+      <c r="P19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
-      <c r="H21" s="4">
-        <v>5</v>
-      </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
-        <v>5</v>
-      </c>
-      <c r="M21" s="4">
-        <v>5</v>
-      </c>
-      <c r="N21" s="4">
-        <v>5</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="8">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>3</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3">
-        <v>10</v>
-      </c>
-      <c r="H23" s="3">
-        <v>10</v>
-      </c>
-      <c r="I23" s="3">
-        <v>10</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10</v>
-      </c>
-      <c r="K23" s="3">
-        <v>10</v>
-      </c>
-      <c r="L23" s="3">
-        <v>10</v>
-      </c>
-      <c r="M23" s="3">
-        <v>10</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="4">
+      <c r="Q21" s="3">
+        <v>2</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5">
+        <v>10</v>
+      </c>
+      <c r="L23" s="5">
+        <v>10</v>
+      </c>
+      <c r="M23" s="5">
+        <v>10</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="3">
         <f>SUM(F5:F24)</f>
         <v>75</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" ref="G25:L25" si="0">SUM(G5:G24)</f>
         <v>72</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <f>SUM(M5:M24)</f>
         <v>47</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <f>SUM(N5:N24)</f>
         <v>24</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <f>SUM(O5:O24)</f>
         <v>10</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <f>SUM(P5:P24)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
+      <c r="Q25" s="3">
+        <f>SUM(Q5:Q24)</f>
+        <v>2</v>
+      </c>
+      <c r="R25" s="3">
+        <f>SUM(R5:R24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="6">
         <f>SUM(F5:F23)</f>
         <v>75</v>
@@ -1345,15 +1442,23 @@
         <v>10</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27" si="2">SUM(P5:P23)</f>
+        <f t="shared" ref="P27:Q27" si="2">SUM(P5:P23)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="Q27" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" ref="R27" si="3">SUM(R5:R23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1365,70 +1470,95 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="169">
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H11:H12"/>
     <mergeCell ref="B23:E24"/>
     <mergeCell ref="B13:E14"/>
     <mergeCell ref="F5:F6"/>
@@ -1453,66 +1583,67 @@
     <mergeCell ref="B17:E18"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
